--- a/plots/basic_stats/two_var_stats/allmus_governance_simpl_vs_region_name-PC.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_governance_simpl_vs_region_name-PC.xlsx
@@ -444,43 +444,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9330000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="D2">
-        <v>4.26</v>
+        <v>4.142</v>
       </c>
       <c r="E2">
-        <v>1.79</v>
+        <v>1.819</v>
       </c>
       <c r="F2">
-        <v>1.538</v>
+        <v>1.484</v>
       </c>
       <c r="G2">
-        <v>1.714</v>
+        <v>1.628</v>
       </c>
       <c r="H2">
-        <v>1.84</v>
+        <v>1.915</v>
       </c>
       <c r="I2">
-        <v>1.109</v>
+        <v>1.077</v>
       </c>
       <c r="J2">
-        <v>2.596</v>
+        <v>2.466</v>
       </c>
       <c r="K2">
-        <v>2.697</v>
+        <v>2.633</v>
       </c>
       <c r="L2">
-        <v>2.017</v>
+        <v>1.939</v>
       </c>
       <c r="M2">
-        <v>2.017</v>
+        <v>1.891</v>
       </c>
       <c r="N2">
-        <v>2.344</v>
+        <v>2.203</v>
       </c>
       <c r="O2">
-        <v>24.855</v>
+        <v>24.107</v>
       </c>
     </row>
     <row r="3">
@@ -493,43 +493,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.286</v>
+        <v>1.436</v>
       </c>
       <c r="D3">
-        <v>9.805999999999999</v>
+        <v>9.911</v>
       </c>
       <c r="E3">
-        <v>3.958</v>
+        <v>3.998</v>
       </c>
       <c r="F3">
-        <v>4.916</v>
+        <v>4.908</v>
       </c>
       <c r="G3">
-        <v>7.462</v>
+        <v>7.565</v>
       </c>
       <c r="H3">
-        <v>4.84</v>
+        <v>5.195</v>
       </c>
       <c r="I3">
-        <v>1.689</v>
+        <v>1.963</v>
       </c>
       <c r="J3">
-        <v>4.941</v>
+        <v>4.86</v>
       </c>
       <c r="K3">
-        <v>10.94</v>
+        <v>10.725</v>
       </c>
       <c r="L3">
-        <v>11.192</v>
+        <v>11.108</v>
       </c>
       <c r="M3">
-        <v>4.714</v>
+        <v>4.668</v>
       </c>
       <c r="N3">
-        <v>4.084</v>
+        <v>4.309</v>
       </c>
       <c r="O3">
-        <v>69.828</v>
+        <v>70.646</v>
       </c>
     </row>
     <row r="4">
@@ -542,43 +542,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D4">
-        <v>0.6810000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="E4">
-        <v>0.126</v>
+        <v>0.12</v>
       </c>
       <c r="F4">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="G4">
-        <v>0.328</v>
+        <v>0.335</v>
       </c>
       <c r="H4">
-        <v>0.328</v>
+        <v>0.335</v>
       </c>
       <c r="I4">
-        <v>0.126</v>
+        <v>0.12</v>
       </c>
       <c r="J4">
-        <v>0.302</v>
+        <v>0.287</v>
       </c>
       <c r="K4">
-        <v>0.378</v>
+        <v>0.335</v>
       </c>
       <c r="L4">
-        <v>0.101</v>
+        <v>0.096</v>
       </c>
       <c r="M4">
-        <v>0.126</v>
+        <v>0.12</v>
       </c>
       <c r="N4">
-        <v>0.126</v>
+        <v>0.168</v>
       </c>
       <c r="O4">
-        <v>2.672</v>
+        <v>2.634</v>
       </c>
     </row>
     <row r="5">
@@ -591,43 +591,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.202</v>
+        <v>0.192</v>
       </c>
       <c r="D5">
-        <v>0.202</v>
+        <v>0.168</v>
       </c>
       <c r="E5">
-        <v>0.277</v>
+        <v>0.263</v>
       </c>
       <c r="F5">
-        <v>0.202</v>
+        <v>0.192</v>
       </c>
       <c r="G5">
-        <v>0.403</v>
+        <v>0.383</v>
       </c>
       <c r="H5">
-        <v>0.151</v>
+        <v>0.144</v>
       </c>
       <c r="I5">
-        <v>0.076</v>
+        <v>0.096</v>
       </c>
       <c r="J5">
-        <v>0.126</v>
+        <v>0.168</v>
       </c>
       <c r="K5">
-        <v>0.403</v>
+        <v>0.407</v>
       </c>
       <c r="L5">
-        <v>0.277</v>
+        <v>0.311</v>
       </c>
       <c r="M5">
-        <v>0.101</v>
+        <v>0.096</v>
       </c>
       <c r="N5">
-        <v>0.227</v>
+        <v>0.192</v>
       </c>
       <c r="O5">
-        <v>2.647</v>
+        <v>2.612</v>
       </c>
     </row>
     <row r="6">
@@ -640,43 +640,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.446</v>
+        <v>2.562</v>
       </c>
       <c r="D6">
-        <v>14.949</v>
+        <v>14.891</v>
       </c>
       <c r="E6">
-        <v>6.151</v>
+        <v>6.2</v>
       </c>
       <c r="F6">
-        <v>6.681</v>
+        <v>6.608000000000001</v>
       </c>
       <c r="G6">
-        <v>9.907</v>
+        <v>9.911</v>
       </c>
       <c r="H6">
-        <v>7.159</v>
+        <v>7.589</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>3.256</v>
       </c>
       <c r="J6">
-        <v>7.965</v>
+        <v>7.781000000000001</v>
       </c>
       <c r="K6">
-        <v>14.418</v>
+        <v>14.1</v>
       </c>
       <c r="L6">
-        <v>13.587</v>
+        <v>13.454</v>
       </c>
       <c r="M6">
-        <v>6.958</v>
+        <v>6.775</v>
       </c>
       <c r="N6">
-        <v>6.781</v>
+        <v>6.872</v>
       </c>
       <c r="O6">
-        <v>100.002</v>
+        <v>99.999</v>
       </c>
     </row>
   </sheetData>
